--- a/medicine/Enfance/Joyce_Carol_Oates/Joyce_Carol_Oates.xlsx
+++ b/medicine/Enfance/Joyce_Carol_Oates/Joyce_Carol_Oates.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Joyce Carol Oates [ d͡ʒɔɪs ˈkærəl oʊts][1], née le 16 juin 1938 à Lockport dans l'État de New York, est une femme de lettres américaine prolifique, à la fois poétesse, romancière, nouvelliste, dramaturge et essayiste. Elle a également publié plusieurs romans policiers sous les pseudonymes Rosamond Smith et Lauren Kelly.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Joyce Carol Oates [ d͡ʒɔɪs ˈkærəl oʊts], née le 16 juin 1938 à Lockport dans l'État de New York, est une femme de lettres américaine prolifique, à la fois poétesse, romancière, nouvelliste, dramaturge et essayiste. Elle a également publié plusieurs romans policiers sous les pseudonymes Rosamond Smith et Lauren Kelly.
 Parmi ses romans les plus célèbres on peut trouver Nous étions les Mulvaney (1996),  Un livre de martyrs américains (2017), Reflets en eau trouble (1992) et Blonde (2000) qui est considéré comme le « chef-d'œuvre de sa carrière ». Son roman semi-biographique a pu bénéficier d'une adaptation télévisée peu de temps après sa sortie et surtout d'une adaptation cinématographique au début des années 2020.
 </t>
         </is>
@@ -514,67 +526,191 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Jeunesse et formation
-Née en 1938 dans l'État de New York[2], elle est la fille de Frederic Oates, dessinateur industriel, et de Carolina, femme au foyer. Sa grand-mère paternelle, Blanche Woodside, vit avec la famille et est très proche de Joyce, qui l'évoquera dans son roman La Fille du fossoyeur (The Gravedigger's Daughter, 2007). Elle a un frère, Fred Jr, né en 1943, et une sœur, autiste, Lynn Ann, née en 1956.
+          <t>Jeunesse et formation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Née en 1938 dans l'État de New York, elle est la fille de Frederic Oates, dessinateur industriel, et de Carolina, femme au foyer. Sa grand-mère paternelle, Blanche Woodside, vit avec la famille et est très proche de Joyce, qui l'évoquera dans son roman La Fille du fossoyeur (The Gravedigger's Daughter, 2007). Elle a un frère, Fred Jr, né en 1943, et une sœur, autiste, Lynn Ann, née en 1956.
 Très tôt, elle s'intéresse à la lecture, notamment au conte de Lewis Carroll, Alice aux pays des merveilles, que lui a offert sa grand-mère, et dont elle dira qu'il fut sa plus grande influence littéraire.
 À l'adolescence, elle découvre les écrits de William Faulkner, Fiodor Dostoïevski, Henry David Thoreau, Ernest Hemingway, Charlotte Brontë et Emily Brontë, qui l'influenceront beaucoup par la suite. Elle commence à écrire dès l'âge de 14 ans, lorsque sa grand-mère lui donne une machine à écrire.
 Elle travaille pour le journal de son lycée, le Williamsville South High School, dont elle sort diplômée en 1956 (elle est d'ailleurs la première dans sa famille à obtenir un diplôme d'enseignement secondaire).
-Elle obtient alors une bourse pour l'université de Syracuse, où elle commence à écrire des romans, dont elle n'est jamais réellement satisfaite. À 19 ans, elle « connaît un premier succès en gagnant, avec la nouvelle In the World, le concours organisé par [le magazine] Mademoiselle »[2],[3]. Elle sort diplômée de l'université de Syracuse en 1960, puis obtient une maîtrise universitaire en Lettres de l'université du Wisconsin à Madison en 1961. Peu après, elle épouse Raymond J. Smith, un étudiant de la même université, qui deviendra professeur de littérature anglaise. En 1962, le couple s'installe à Détroit, au Michigan, « une ville où la violence et les tensions raciales sont vives. À son propos, Joyce Carol Oates dit : « Détroit, mon grand sujet, a fait de moi la personne que je suis, et en conséquence l'écrivain que je suis, pour le meilleur et pour le pire. » Cette ville, qui a également inspiré Elmore Leonard et Loren D. Estleman, est le cadre de son premier chef-d'œuvre, Eux (Them, 1969), couronné par le National Book Award »[2],[3].
-Elle commence à enseigner brièvement à Beaumont, au Texas, puis, en 1968, à l'Université de Windsor, en Ontario, au Canada. Dix ans plus tard, elle décroche un poste de professeur en création littéraire à l'université de Princeton, dans le New Jersey[2]. Elle enseigne dans cette institution jusqu'en 2014.
-Son premier époux décède en 2008 et elle se remarie en 2009 avec Charlie Gross[4], un chercheur en neurosciences. Charlie Gross décède à son tour en avril 2019.
-Carrière littéraire
-Peu de temps après l'obtention de son diplôme, elle rencontre Evelyn Schrifte, la directrice des éditions Vanguard, à qui elle fait une forte impression. Son premier ouvrage, un recueil de nouvelles intitulé By the North Gate, est publié par cette maison en 1963.
-Depuis, elle publie des romans, des essais, des nouvelles, du théâtre et de la poésie ; au total plus de soixante-dix titres. Fine psychologue, elle « aime les personnages ambigus, leurs zones d'ombre et leurs secrets. La violence et les pulsions sexuelles présentes dans certains de ses récits sont proches de celles que l'on retrouve dans le roman noir »[5]. Elle a d'ailleurs écrit plusieurs romans policiers sous les pseudonymes de Rosamond Smith et de Lauren Kelly. À l'opposé de ces textes ancrés dans la réalité sociologique américaine, l'autre versant de l'œuvre de Joyce Carol Oates use d'un réalisme magique dans des romans gothiques contemporains, où apparaissent les influences conjuguées de William Faulkner, Franz Kafka, Thomas Mann et, surtout, Flannery O'Connor, notamment la Tétralogie du Pays des merveilles, qui inclut le roman Eux (Them, 1969), lauréat du National Book Award, et dans la Saga gothique, qui s'amorce avec le roman Bellefleur (1980) et s'achève avec Maudits (The Accursed, 2013).
+Elle obtient alors une bourse pour l'université de Syracuse, où elle commence à écrire des romans, dont elle n'est jamais réellement satisfaite. À 19 ans, elle « connaît un premier succès en gagnant, avec la nouvelle In the World, le concours organisé par [le magazine] Mademoiselle »,. Elle sort diplômée de l'université de Syracuse en 1960, puis obtient une maîtrise universitaire en Lettres de l'université du Wisconsin à Madison en 1961. Peu après, elle épouse Raymond J. Smith, un étudiant de la même université, qui deviendra professeur de littérature anglaise. En 1962, le couple s'installe à Détroit, au Michigan, « une ville où la violence et les tensions raciales sont vives. À son propos, Joyce Carol Oates dit : « Détroit, mon grand sujet, a fait de moi la personne que je suis, et en conséquence l'écrivain que je suis, pour le meilleur et pour le pire. » Cette ville, qui a également inspiré Elmore Leonard et Loren D. Estleman, est le cadre de son premier chef-d'œuvre, Eux (Them, 1969), couronné par le National Book Award »,.
+Elle commence à enseigner brièvement à Beaumont, au Texas, puis, en 1968, à l'Université de Windsor, en Ontario, au Canada. Dix ans plus tard, elle décroche un poste de professeur en création littéraire à l'université de Princeton, dans le New Jersey. Elle enseigne dans cette institution jusqu'en 2014.
+Son premier époux décède en 2008 et elle se remarie en 2009 avec Charlie Gross, un chercheur en neurosciences. Charlie Gross décède à son tour en avril 2019.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Carrière littéraire</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Peu de temps après l'obtention de son diplôme, elle rencontre Evelyn Schrifte, la directrice des éditions Vanguard, à qui elle fait une forte impression. Son premier ouvrage, un recueil de nouvelles intitulé By the North Gate, est publié par cette maison en 1963.
+Depuis, elle publie des romans, des essais, des nouvelles, du théâtre et de la poésie ; au total plus de soixante-dix titres. Fine psychologue, elle « aime les personnages ambigus, leurs zones d'ombre et leurs secrets. La violence et les pulsions sexuelles présentes dans certains de ses récits sont proches de celles que l'on retrouve dans le roman noir ». Elle a d'ailleurs écrit plusieurs romans policiers sous les pseudonymes de Rosamond Smith et de Lauren Kelly. À l'opposé de ces textes ancrés dans la réalité sociologique américaine, l'autre versant de l'œuvre de Joyce Carol Oates use d'un réalisme magique dans des romans gothiques contemporains, où apparaissent les influences conjuguées de William Faulkner, Franz Kafka, Thomas Mann et, surtout, Flannery O'Connor, notamment la Tétralogie du Pays des merveilles, qui inclut le roman Eux (Them, 1969), lauréat du National Book Award, et dans la Saga gothique, qui s'amorce avec le roman Bellefleur (1980) et s'achève avec Maudits (The Accursed, 2013).
 Un peu à part dans l'ensemble de l'œuvre, son roman Blonde, inspiré de la vie de Marilyn Monroe et publié pratiquement dans le monde entier, lui vaut les éloges unanimes de la critique, tout comme le roman Les Chutes (The Falls, 2004) grâce auquel elle remporte en France le Prix Femina étranger. Elle suscite aussi la controverse à plusieurs reprises, notamment avec son roman de littérature d'enfance et de jeunesse intitulé Sexy (2005), qui aborde de front les thèmes de l'adultère, de la pédophilie et de l'homosexualité.
 Excellente nouvelliste, elle signe aussi de courts romans, dont le plus reconnu demeure Reflets en eau trouble (Black Water, 1992), qui revient sur le fait divers de l'accident de Chappaquiddick.
 Essayiste, elle donne des études sur les œuvres de D. H. Lawrence et Oscar Wilde et s'intéresse également à l'écriture féminine et à la boxe.
-L'écrivaine est membre de Mensa[6] et a figuré deux fois parmi les finalistes du prix Nobel de littérature.
+L'écrivaine est membre de Mensa et a figuré deux fois parmi les finalistes du prix Nobel de littérature.
 Alors qu'elle enseigne toujours la littérature à l'université de Princeton, son époux, Raymond J. Smith meurt en février 2008. Il dirigeait une revue littéraire canadienne, l'Ontario Review.
-Au cours de sa carrière elle  a remporté de nombreux prix pour ses écrits, notamment: le National Book Award, pour son roman Eux (1969)[2], deux O. Henry Awards, la National Humanities Medal et le Jerusalem Prize (2019) ainsi que le Prix mondial Cino-Del-Duca en 2020. Ses romans Corky (1994) et Blonde (2000) et ses recueils de nouvelles La Roue de l'amour (1970) et Lovely, Dark, Deep: Stories (2014) ont chacun été finalistes pour le prix Pulitzer. En mai 2020, Joyce Carol Oates est honorée par l'Institut de France du prix mondial Cino-Del-Duca, saluant en elle la conjonction d'une immense autrice et d'une grande humaniste[7].
+Au cours de sa carrière elle  a remporté de nombreux prix pour ses écrits, notamment: le National Book Award, pour son roman Eux (1969), deux O. Henry Awards, la National Humanities Medal et le Jerusalem Prize (2019) ainsi que le Prix mondial Cino-Del-Duca en 2020. Ses romans Corky (1994) et Blonde (2000) et ses recueils de nouvelles La Roue de l'amour (1970) et Lovely, Dark, Deep: Stories (2014) ont chacun été finalistes pour le prix Pulitzer. En mai 2020, Joyce Carol Oates est honorée par l'Institut de France du prix mondial Cino-Del-Duca, saluant en elle la conjonction d'une immense autrice et d'une grande humaniste.
 </t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
         <is>
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Romans
-Tétralogie du Pays des merveilles
-A Garden of Earthly Delights (1967) Publié en français sous le titre Le Jardin des délices, Paris, Stock, 1976  (ISBN 2-234-00490-X)
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Tétralogie du Pays des merveilles</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A Garden of Earthly Delights (1967) Publié en français sous le titre Le Jardin des délices, Paris, Stock, 1976  (ISBN 2-234-00490-X)
 Expensive People (1968) Publié en français sous le titre Des gens chics, Paris, Stock, 1970
 Them (1969) Publié en français sous le titre Eux, Paris, Stock, 1971 ; réédition dans une traduction révisée, Paris, Stock, 2007  (ISBN 978-2-234-05996-2) ; réédition, Points coll. « Signature » no 2023, 2008  (ISBN 978-2-7578-0944-0)
-Wonderland (1971) Publié en français sous le titre Le Pays des merveilles, Paris, Stock, coll. « Le Cabinet cosmopolite », 1985  (ISBN 2-234-00085-8) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 3070, 1986  (ISBN 2-253-03859-8)
-Saga gothique
-Bellefleur (1980) Publié en français sous le titre Bellefleur, Paris, Stock, coll. « La Cosmopolite », 1981  (ISBN 2-234-01439-5) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 32437, 2011  (ISBN 978-2-253-16300-8)
+Wonderland (1971) Publié en français sous le titre Le Pays des merveilles, Paris, Stock, coll. « Le Cabinet cosmopolite », 1985  (ISBN 2-234-00085-8) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 3070, 1986  (ISBN 2-253-03859-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Saga gothique</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Bellefleur (1980) Publié en français sous le titre Bellefleur, Paris, Stock, coll. « La Cosmopolite », 1981  (ISBN 2-234-01439-5) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 32437, 2011  (ISBN 978-2-253-16300-8)
 A Bloodsmoor Romance (1982) Publié en français sous le titre La Légende de Bloodsmoor, Paris, Stock, coll. « Nouveau Cabinet cosmopolite », 1985  (ISBN 2-234-01784-X) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 32787, 2012  (ISBN 978-2-253-16301-5)
 Mysteries of Winterthurn (1984) Publié en français sous le titre Les Mystères de Winterthurn, Paris, Stock, coll. « Nouveau Cabinet cosmopolite », 1987  (ISBN 2-234-01996-6) ; réédition, Paris, Stock, coll. « La Cosmopolite », 2011  (ISBN 978-2-234-07113-1) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 32825, 2012  (ISBN 978-2-253-16299-5)
 My Heart Laid Bare (1998) Publié en français sous le titre Mon cœur mis à nu, Paris, Stock, coll. « La Cosmopolite », 2001  (ISBN 2-234-05397-8); réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 15536, 2003  (ISBN 2-253-15536-5)
-The Accursed (2013) Publié en français sous le titre Maudits, Paris, Philippe Rey, 2015  (ISBN 978-2-84876-422-1)
-Autres romans
-With Shuddering Fall (1964)
+The Accursed (2013) Publié en français sous le titre Maudits, Paris, Philippe Rey, 2015  (ISBN 978-2-84876-422-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Autres romans</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>With Shuddering Fall (1964)
 Do With Me What You Will (1973) Publié en français sous le titre Faites de moi ce que vous voulez, Paris, Stock, coll. « Le Cabinet cosmopolite », 1977  (ISBN 2-234-00671-6)
 The Assassins (1975)
 Childwold (1976) Publié en français sous le titre Haute Enfance, Paris, Stock, coll. « Nouveau Cabinet cosmopolite », 1978  (ISBN 2-234-00756-9) ; réédition, Paris, LGF coll. « Le Livre de poche. Biblio » no 3266, 1996  (ISBN 2-253-93266-3)
@@ -616,11 +752,45 @@
 Night. Sleep. Death. The Stars (2020)Publié en français sous le titre La Nuit. Le Sommeil. La Mort. Les Étoiles., Paris, Philippe Rey, 2021, 928 pages  (ISBN 978-2-84876-895-3)
 Cardiff, by the Sea (2020)Publié en français sous le titre Cardiff, près de la mer', Paris, Philippe Rey, 2022  (ISBN 978-2-84876-941-7)
 Breathe (2021)Publié en français sous le titre Respire, Paris, Philippe Rey, 2022, 400 pages  (ISBN 978-2-84876-963-9)
-Babysitter: A novel (2022) Publié en français sous le titre Babysitter[8], Paris, Philippe Rey, 2023, 608 pages,  (ISBN 978-2-84876-941-7)
+Babysitter: A novel (2022) Publié en français sous le titre Babysitter, Paris, Philippe Rey, 2023, 608 pages,  (ISBN 978-2-84876-941-7)
 48 Clues into the Disappearance of My Sister (2023)Publié en français sous le titre 48 indices sur la disparition  de ma sœur, Paris, Philippe Rey, 2024, 288 pages  (ISBN 978-2-38482-074-0)
-Butcher (2024)
-Nouvelles
-The Triumph of the Spider Monkey (1976) Publié en français sous le titre Le Triomphe du singe-araignée, Montréal, Les Allusifs no 84, 2009  (ISBN 978-2-922868-96-8) ; réédition, Paris, Points no 2779  (ISBN 978-2-7578-1902-9)
+Butcher (2024)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>The Triumph of the Spider Monkey (1976) Publié en français sous le titre Le Triomphe du singe-araignée, Montréal, Les Allusifs no 84, 2009  (ISBN 978-2-922868-96-8) ; réédition, Paris, Points no 2779  (ISBN 978-2-7578-1902-9)
 I Lock My Door Upon Myself (1990) Publié en français sous le titre Un amour noir, Paris, Édition du Félin, 1993  (ISBN 2-86645-135-X) ; réédition, Paris, Gallimard, coll. « Folio » no 3212  (ISBN 2-07-040520-6)
 The Rise of Life on Earth (1991) Publié en français sous le titre Au commencement était la vie, Paris, Édition du Félin, 1994  (ISBN 2-86645-171-6) ; réédition, Paris, Gallimard, coll. « Folio » no 3211  (ISBN 2-07-040519-2)
 Black Water (1992) Publié en français sous le titre Reflets en eau trouble, Paris, Écriture, 1993  (ISBN 2-909240-06-1) ; réédition, Arles, Actes Sud, coll. « Babel » no 472  (ISBN 2-7427-2279-3)
@@ -631,22 +801,124 @@
 Patricide (2012)
 The Rescuer (2012)
 Lovely, Dark, Deep (2014) Publié en français sous le titre Trahison, Paris, Philippe Rey 2018  (ISBN 978-2-84876-700-0) ; réédition, Paris, Points no 5146  (ISBN 978-2-7578-7576-6)
-33 Clues Into the Disappearance of My Sister (2022). Novella parue dans le  Ellery Queen's Mystery Magazine, mars-avril 2022
-Romans signés Rosamond Smith
-Lives of the Twins (1987), aussi titré Kindred Passions Publié en français sous le titre L'Amour en double. Traduction Anne Rabinovitch, Paris, Stock, 1989
+33 Clues Into the Disappearance of My Sister (2022). Novella parue dans le  Ellery Queen's Mystery Magazine, mars-avril 2022</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans signés Rosamond Smith</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Lives of the Twins (1987), aussi titré Kindred Passions Publié en français sous le titre L'Amour en double. Traduction Anne Rabinovitch, Paris, Stock, 1989
 Soul/Mate (1989) Publié en français sous le titre Le Sourire de l'ange, Paris, L'Archipel, 1994  (ISBN 2-909241-72-6)
 Nemesis (1990) Publié en français sous le titre Le Département de musique, Paris, J.-C. Lattès, 1992  (ISBN 2-7096-1111-2)
 Snake Eyes (1992) Publié en français sous le titre Œil-de-Serpent, Paris, L'Archipel, 1993  (ISBN 2-909241-46-7) ; réédition, Paris, Pocket no 4207, 1994  (ISBN 2-266-06149-6)
 You Can't Catch Me (1995) Publié en français sous le titre Une troublante identité, Paris, Belfond, 2000  (ISBN 2-7144-3446-0)
 Double Delight (1997) Publié en français sous le titre Double Délice, Paris, Belfond, 2000  (ISBN 2-7144-3552-1) ; réédition sous le titre Fleur vénéneuse, Paris, Archipoche no 342, 2015  (ISBN 978-2-35287-732-5)
 Starr Bright Will Be With you Soon (1999) Publié en français sous le titre Double diabolique, Paris, L'Archipel, 2005  (ISBN 2-84187-639-X) ; réédition, Paris, L'Archipel coll. « Archipoche » no 24, 2006  (ISBN 978-2-35287-023-4)
-The Barrens (2001) Publié en français sous le titre Le Ravin, Paris, L'Archipel, 2003  (ISBN 2-84187-540-7) ; réédition, Paris, J'ai lu coll. « Policier » no 7853, 2013  (ISBN 978-2-290-07299-8)
-Romans signés Lauren Kelly
-Take Me, Take Me With You (2003) Publié en français sous le titre Emmène-moi, emmène-moi, Paris, Albin Michel, 2005  (ISBN 2-226-16708-0) ; réédition, Paris, LGF coll. « Le Livre de poche. Thriller » no 37237, 2007  (ISBN 978-2-253-12061-2)
+The Barrens (2001) Publié en français sous le titre Le Ravin, Paris, L'Archipel, 2003  (ISBN 2-84187-540-7) ; réédition, Paris, J'ai lu coll. « Policier » no 7853, 2013  (ISBN 978-2-290-07299-8)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Romans signés Lauren Kelly</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Take Me, Take Me With You (2003) Publié en français sous le titre Emmène-moi, emmène-moi, Paris, Albin Michel, 2005  (ISBN 2-226-16708-0) ; réédition, Paris, LGF coll. « Le Livre de poche. Thriller » no 37237, 2007  (ISBN 978-2-253-12061-2)
 The Stolen Heart (2005) Publié en français sous le titre Cœur volé, Paris, Albin Michel, coll. « Carré jaune », 2006  (ISBN 2-226-17356-0)
-Blood Mask (2006) Publié en français sous le titre Masque de sang, Paris, Albin Michel, 2010  (ISBN 978-2-226-21870-4)
-Recueils de nouvelles
-By the North Gate (1963)
+Blood Mask (2006) Publié en français sous le titre Masque de sang, Paris, Albin Michel, 2010  (ISBN 978-2-226-21870-4)</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Recueils de nouvelles</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>By the North Gate (1963)
 Upon the Sweeping Flood And Other Stories (1966)
 The Wheel of Love and Other Stories (1970) Publié en français sous le titre Corps, Paris, Stock, 1973 ; réédition partielle et bilingue sous le titre Démons, Paris, Aubier-Flammarion, coll. « En bilingue » no 62, 1976  (ISBN 2-08-220562-2)
 Marriages and Infidelities (1972) Publié en français sous le titre Mariages et Infidélités, Paris, Stock, coll. « Nouveau Cabinet cosmopolite », 1980  (ISBN 2-234-01140-X)
@@ -690,9 +962,43 @@
 Night, Neon: Tales of Mystery and Suspense (2021) Publié en français sous le titre Nuit, néon, Paris, Philippe Rey, 2023  (ISBN 978-2-84876-992-9)
 The (Other) You (2021) Publié en français sous le titre Un (autre) toi, Paris, Philippe Rey, 2022  (ISBN 978-2-84876-965-3)
 Extenuating Circumstances  (Novembre 2022)
-Zero Sum (2023) Publié en français sous le titre Monstresœur, Paris, Philippe Rey, 2023  (ISBN 978-2-38482-044-3)
-Pièces de théâtre
-Miracle Play (1974)
+Zero Sum (2023) Publié en français sous le titre Monstresœur, Paris, Philippe Rey, 2023  (ISBN 978-2-38482-044-3)</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Pièces de théâtre</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Miracle Play (1974)
 Three Plays (1980)
 Tone Clusters (1990) Publié en français sous le titre En cas de meurtre, Arles, Actes Sud, coll. « Actes Sud-Papiers », 1996  (ISBN 2-7427-0415-9)
 In Darkest America (1991)
@@ -700,9 +1006,43 @@
 Twelve Plays (1991), dont la pièce intitulée Black
 The Perfectionist and Other Plays (1995)
 New Plays (1998)
-Dr. Magic: Six One Act Plays (2004)
-Poésie
-Women In Love and Other Poems (1968)
+Dr. Magic: Six One Act Plays (2004)</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Poésie</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Women In Love and Other Poems (1968)
 Anonymous Sins &amp; Other Poems (1969)
 Love and Its Derangements (1970)
 Angel Fire (1973)
@@ -711,9 +1051,43 @@
 Women Whose Lives Are Food, Men Whose Lives Are Money (1978)
 Invisible Woman: New and Selected Poems, 1970–1982 (1982)
 The Time Traveler (1989)
-Tenderness (1996)
-Ouvrages de littérature d'enfance et de jeunesse
-Come Meet Muffin! (1998)
+Tenderness (1996)</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ouvrages de littérature d'enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Come Meet Muffin! (1998)
 Big Mouth &amp; Ugly Girl (2002) Publié en français sous le titre Nulle et Grande Gueule, Paris, Gallimard jeunesse, 2002  (ISBN 2-07-053684-X) ; réédition, Paris, Gallimard, coll. « Folio » no 4059, 2004  (ISBN 2-07-042571-1)
 Where Is Little Reynard? (2003)
 Naughty Chérie! (2008)
@@ -721,9 +1095,43 @@
 Freaky Green Eyes (2003) Publié en français sous le titre Zarbie les yeux verts, Paris, Gallimard, coll. « Scripto », 2005  (ISBN 2-07-050858-7)
 Sexy (2005) Publié en français sous le titre Sexy, Paris, Gallimard coll. « Scripto », 2007  (ISBN 978-2-07-057468-1) ; réédition, Paris, Gallimard, coll. « Folio » no 4908, 2009  (ISBN 978-2-07-038083-1)
 After the Wreck, I Picked Myself Up, Spread My Wings, and Flew Away (2006) Publié en français sous le titre Un endroit où se cacher, Paris, Albin Michel, traduction Dorothée Zumstein,  2010  (ISBN 978-2-226-19543-2) Nouvelle traduction : Dans le bleu,  éditions Robert Laffont,  traduction  Clémentine  Beauvais ,  2022,  288 p.  (ISBN 9782221262870)
-Two or Three Things I Forgot to Tell You (2012) Publié en français sous le titre Ce que j'ai oublié de te dire, Paris, Albin Michel, 2014  (ISBN 978-2-226-25258-6)
-Essais et mémoires
-The Edge of Impossibility: Tragic Forms in Literature (1972)
+Two or Three Things I Forgot to Tell You (2012) Publié en français sous le titre Ce que j'ai oublié de te dire, Paris, Albin Michel, 2014  (ISBN 978-2-226-25258-6)</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Essais et mémoires</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>The Edge of Impossibility: Tragic Forms in Literature (1972)
 The Hostile Sun: The Poetry of D.H. Lawrence (1973)
 New Heaven, New Earth: The Visionary Experience in Literature (1974)
 The Picture of Dorian Gray: Wilde’s Parable of the Fall (1980)
@@ -740,40 +1148,79 @@
 In the Absence of Mentors/Monsters (2009)
 In Rough Country (2010)
 A Widow's Story: A Memoir (2011) Publié en français sous le titre J'ai réussi à rester en vie, Paris, Philippe Rey, 2011  (ISBN 978-2-84876-194-7) ; réédition, Paris, Points no 2911, 2012  (ISBN 978-2-7578-2158-9)
-The Lost Landscape: A Writer's Coming of Age (2015) Publié en français sous le titre Paysage perdu : de l'enfant à l'écrivain, Paris, Philippe Rey, 2017  (ISBN 978-2-84876-617-1) ; réédition, Paris, Points no 4984, 2019  (ISBN 978-2-7578-7104-1)
-Livres audio
-Dis-moi que tu me pardonnes ?, lu par Isabelle Otero, 2009, Paris, des femmes-Antoinette Fouque, coll. « La Bibliothèque des voix », Coup de cœur 2010 de l'Académie Charles-Cros (EAN 3328140021080).</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+The Lost Landscape: A Writer's Coming of Age (2015) Publié en français sous le titre Paysage perdu : de l'enfant à l'écrivain, Paris, Philippe Rey, 2017  (ISBN 978-2-84876-617-1) ; réédition, Paris, Points no 4984, 2019  (ISBN 978-2-7578-7104-1)</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Livres audio</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Dis-moi que tu me pardonnes ?, lu par Isabelle Otero, 2009, Paris, des femmes-Antoinette Fouque, coll. « La Bibliothèque des voix », Coup de cœur 2010 de l'Académie Charles-Cros (EAN 3328140021080).</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
         <is>
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Lauréate
-1967 : O. Henry Award - In the Region of Ice (nouvelle)
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Lauréate</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>1967 : O. Henry Award - In the Region of Ice (nouvelle)
 1968 : M. L. Rosenthal Award, National Institute of Arts and Letters - Le Jardin des délices (A Garden of Earthly Delights)
 1970 : National Book Award - Eux (Them)
 1973 : O. Henry Award - The Dead (nouvelle)
@@ -791,100 +1238,283 @@
 2011 : Prix World Fantasy de la meilleure nouvelle pour Fossil-Figures (nouvelle)
 2011 : Honorary Doctor of Arts, Université de Pennsylvanie
 2013 : Meilleur livre étranger 2013 du magazine Lire pour Mudwoman
-2015 : Prix du meilleur roman des lecteurs de Points[9] pour Mudwoman
+2015 : Prix du meilleur roman des lecteurs de Points pour Mudwoman
 2016 : Prix Bram Stoker du meilleur recueil de nouvelles pour The Doll-Master and Other Tales of Terror
 2016 : Prix Bram-Stoker de la meilleure nouvelle courte pour The Crawl Space
 2019 : Prix Jérusalem
-2020 : Prix Cino Del Duca de l'Institut de France
-Finaliste
-1968 : National Book Award - Le Jardin des délices (A Garden of Earthly Delights)
+2020 : Prix Cino Del Duca de l'Institut de France</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Distinctions</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Finaliste</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>1968 : National Book Award - Le Jardin des délices (A Garden of Earthly Delights)
 1969 : National Book Award - Des gens chics (Expensive People)
 1972 : National Book Award - Le Pays des merveilles (Wonderland)
 1990 : National Book Award - Cette saveur amère de l'amour (Because It Is Bitter, and Because It Is My Heart)
 1992 : National Book Critics Circle Award for Fiction - Reflets en eau trouble (Black Water)
 1993 : Pulitzer Prize - Reflets en eau trouble (Black Water)
 1995 : PEN/Faulkner Award - Corky (What I Lived For)
-2023 ; Prix Thriller de la meilleure nouvelle - 33 Clues Into the Disappearance of My Sister[10]</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+2023 ; Prix Thriller de la meilleure nouvelle - 33 Clues Into the Disappearance of My Sister</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Commentaires de quelques-unes de ses œuvres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Blonde (2000)
-Elle essaye dans cet ouvrage, à travers une œuvre de fiction, de capter la vérité spituelle et poétique de Marilyn Monroe[2]. Ce roman a été adapté pour Netflix par Andrew Dominik, avec Ana de Armas dans le rôle de la célèbre star[11].
-The Accursed (2013)
-Le roman gothique Maudits (en) raconte une malédiction qui se serait déroulée pour l'essentiel dans quelques familles dirigeantes de l'Université de Princeton en 1905-1906[12]. Des personnages réels sont évoqués et font irruption dans cette œuvre de fiction, tels Woodrow Wilson, Upton Sinclair et Jack London. Stephen King, notamment, a recommandé la lecture de ce roman postmoderne[13].
-Daddy Love (2013)
-Le 21 avril 2006, à Ypsilanti (Michigan), sur un parking de supermarché, une jeune mère est assommée au marteau, et son fils Robbie (5 ans) enlevé à bord d'un monospace. La mère est traînée par le véhicule sur plusieurs mètres. Le mari, Whit Whitcomb, DJ, animateur de radio, passe désormais une grande partie de son temps à chercher des traces du ravisseur. La mère est plus atteinte physiquement, et psychologiquement. Aucun ne perd espoir.
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Blonde (2000)</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle essaye dans cet ouvrage, à travers une œuvre de fiction, de capter la vérité spituelle et poétique de Marilyn Monroe. Ce roman a été adapté pour Netflix par Andrew Dominik, avec Ana de Armas dans le rôle de la célèbre star.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Commentaires de quelques-unes de ses œuvres</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>The Accursed (2013)</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le roman gothique Maudits (en) raconte une malédiction qui se serait déroulée pour l'essentiel dans quelques familles dirigeantes de l'Université de Princeton en 1905-1906. Des personnages réels sont évoqués et font irruption dans cette œuvre de fiction, tels Woodrow Wilson, Upton Sinclair et Jack London. Stephen King, notamment, a recommandé la lecture de ce roman postmoderne.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Commentaires de quelques-unes de ses œuvres</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Daddy Love (2013)</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 21 avril 2006, à Ypsilanti (Michigan), sur un parking de supermarché, une jeune mère est assommée au marteau, et son fils Robbie (5 ans) enlevé à bord d'un monospace. La mère est traînée par le véhicule sur plusieurs mètres. Le mari, Whit Whitcomb, DJ, animateur de radio, passe désormais une grande partie de son temps à chercher des traces du ravisseur. La mère est plus atteinte physiquement, et psychologiquement. Aucun ne perd espoir.
 En mai 2012, au New Jersey, un enfant de onze ans, Gideon Cash, est sauvé de son poursuivant... finit par retrouver ses parents, et par suivre, en partie avec eux, une thérapie auprès du docteur Miriam Kozdoi, ne serait-ce que pour comprendre ce qui s'est passé pendant ces six années, auxquelles il a survécu, et dans quel état.
 Chester Czechi, jeune garçon, assez traumatisé, tue un cousin. À la sortie du pénitencier, à 20 ans, il a surtout appris à devenir invisible, insoupçonnable. Il devient le révérend Chet Cash, prédicateur itinérant de l'Espoir éternel. Il en vit plus ou moins bien, surtout grâce aux gens qu'il rencontre lors de ses prédications. Il enlève un petit garçon, le forme à son usage, et s'en débarrasse à la puberté. Le fils adopté le plus connu des voisins reste Deutéronome. Gideon est le seul à avoir survécu. Son remplaçant potentiel, Kendall McKane, est retrouvé par la police dans le monospace Chrysler, mort dans la caisse, une statue creuse en bois de la Vierge Marie.
-Comment le petit Robbie a-t-il pu vivre pendant six ans, dans le New-Jersey, au service d'un tel individu ? Oublier son passé, rester invisible, ne pas décevoir son Daddy Love, ne pas être puni... La romancière explore les liens complexe qui unissent la jeune victime à son bourreau[14].
-Babysitter (2022)
-Un prédateur sexuel et tueur en série, surnommé Babysitter, assassine des enfants après les avoir enlevés et torturés pendant plusieurs jours. Un couple, Hannah et Wes Jarrett, à l'existence paisible et confortable, un «rêve américain» en quelque sorte, se pense à l'abri des faits et gestes de ce tueur. Mais Hannah recherche l'aventure dans les bras d'un mystérieux amant. Frissons, malaise et frayeurs[15].
+Comment le petit Robbie a-t-il pu vivre pendant six ans, dans le New-Jersey, au service d'un tel individu ? Oublier son passé, rester invisible, ne pas décevoir son Daddy Love, ne pas être puni... La romancière explore les liens complexe qui unissent la jeune victime à son bourreau.
 </t>
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Commentaires de quelques-unes de ses œuvres</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Babysitter (2022)</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Un prédateur sexuel et tueur en série, surnommé Babysitter, assassine des enfants après les avoir enlevés et torturés pendant plusieurs jours. Un couple, Hannah et Wes Jarrett, à l'existence paisible et confortable, un «rêve américain» en quelque sorte, se pense à l'abri des faits et gestes de ce tueur. Mais Hannah recherche l'aventure dans les bras d'un mystérieux amant. Frissons, malaise et frayeurs.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Adaptations de son œuvre</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Cinéma
-1985 : Smooth Talk, film américain réalisé par Joyce Chopra, d'après la nouvelle Where Are You Going, Where Have You Been? (en)
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Cinéma</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>1985 : Smooth Talk, film américain réalisé par Joyce Chopra, d'après la nouvelle Where Are You Going, Where Have You Been? (en)
 1996 : Foxfire, film américain réalisé par Annette Haywood-Carter
 1999 : Getting to Know You, film américain réalisé par Lisanne Skyler
 2012 : Foxfire, confessions d'un gang de filles (Foxfire), film franco-britanno-canadien réalisé par Laurent Cantet
 2017 : L'Amant double, film français réalisé par François Ozon, librement adapté du roman Lives of the Twins
 2017 : Vengeance, film américain réalisé par Johnny Martin, adapté du roman Viol, une histoire d'amour
-2022 : Blonde, film américain réalisé par Andrew Dominiki, adapté du roman éponyme
-Télévision
-1991 : Trouble Jeu (Lies of the Twins), téléfilm américain réalisé par Tim Hunter
+2022 : Blonde, film américain réalisé par Andrew Dominiki, adapté du roman éponyme</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Joyce_Carol_Oates</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Adaptations de son œuvre</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Télévision</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>1991 : Trouble Jeu (Lies of the Twins), téléfilm américain réalisé par Tim Hunter
 2001 : Blonde, mini-série américano-australo-canadienne réalisée par Joyce Chopra
 2002 : Une famille déchirée (We Were the Mulvaneys), téléfilm américain réalisé par Peter Werner</t>
         </is>
